--- a/Autophagic flux assay.xlsx
+++ b/Autophagic flux assay.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/OPLA-vs-POLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7F02B1-A37E-4CC9-A3DA-00F913FF31C4}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46A3DDFF-B0C0-479D-A3F8-12BE8C22EA57}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
     <sheet name="Autophagic flux" sheetId="2" r:id="rId2"/>
     <sheet name="For R" sheetId="3" r:id="rId3"/>
+    <sheet name="For R 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="40">
   <si>
     <t>Gel Number</t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t>800uM POLA</t>
+  </si>
+  <si>
+    <t>LC3-II Intensity</t>
   </si>
 </sst>
 </file>
@@ -522,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1782,7 @@
         <v>0.2770526353124072</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="J2:K2" si="0">AVERAGE(E2:E3)</f>
+        <f t="shared" ref="K2" si="0">AVERAGE(E2:E3)</f>
         <v>0.73721978632530483</v>
       </c>
       <c r="L2">
@@ -1974,11 +1978,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>2.1810637506992592</v>
+        <v>1.5789024570984591</v>
       </c>
       <c r="L7">
         <f>AVERAGE(F12:F13)</f>
-        <v>3.0669994302289432</v>
+        <v>2.3955221791908725</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2051,7 +2055,7 @@
         <v>0.62980754579837894</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="J9:K9" si="7">AVERAGE(E16:E17)</f>
+        <f t="shared" ref="K9" si="7">AVERAGE(E16:E17)</f>
         <v>0.55290567669629498</v>
       </c>
       <c r="L9">
@@ -2131,13 +2135,6 @@
       </c>
       <c r="D12">
         <v>0.58736704462495259</v>
-      </c>
-      <c r="E12">
-        <v>2.783225044300059</v>
-      </c>
-      <c r="F12">
-        <f xml:space="preserve"> (Table13[[#This Row],[Inhibited LC3-II Intensity]]-Table13[[#This Row],[Basal LC3-II Intensity]])/Table13[[#This Row],[Basal LC3-II Intensity]]</f>
-        <v>3.7384766812670134</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2293,7 +2290,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,10 +2411,10 @@
         <v>0.52618126106597485</v>
       </c>
       <c r="D7">
-        <v>2.1810637506992592</v>
+        <v>1.5789024570984591</v>
       </c>
       <c r="E7">
-        <v>3.0669994302289432</v>
+        <v>2.3955221791908725</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,6 +2466,291 @@
       </c>
       <c r="E10">
         <v>1.2556723008481274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435FC283-300D-44AC-8BEA-89543F1E2CF2}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0.2770526353124072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.13539530922603321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.1875642306840197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5.9559585729089565E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.47662359043948277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.52618126106597485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.66667780141751476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.62980754579837894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.76266393522839704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.73721978632530483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0.50234184569572748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>0.57317130459685661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0.63639845647274662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0.97156560503860201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1.5789024570984591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1.3750970438018091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0.55290567669629498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0.93912138799837963</v>
       </c>
     </row>
   </sheetData>
